--- a/src/Calculations/DATA/183 occip python.xlsx
+++ b/src/Calculations/DATA/183 occip python.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lore\Desktop\3Dplots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/nicolas_van_vlasselaer_vub_be/Documents/Github/exanvub/supraorbital-greateroccipital-nerves/src/Calculations/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F96E9B4-F30D-4468-AB33-EE66160D2DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{0F96E9B4-F30D-4468-AB33-EE66160D2DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{066E1219-38AC-3848-9B14-F2567EA08151}"/>
   <bookViews>
-    <workbookView xWindow="-8604" yWindow="5076" windowWidth="17280" windowHeight="8964" xr2:uid="{7ADD0317-5A27-4774-A53D-198E81434BE9}"/>
+    <workbookView xWindow="17420" yWindow="1220" windowWidth="19140" windowHeight="16960" xr2:uid="{7ADD0317-5A27-4774-A53D-198E81434BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -248,31 +248,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{448482B6-DF51-484F-A4F3-8B047EF42258}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -289,7 +279,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -587,13 +577,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85149DC7-4902-4910-80D6-411750C41C0B}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,10 +604,10 @@
       <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H1" t="s">
@@ -625,7 +620,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -641,10 +636,10 @@
       <c r="E2">
         <v>211.1395</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
       <c r="H2">
@@ -657,7 +652,7 @@
         <v>211.8374</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -673,10 +668,10 @@
       <c r="E3">
         <v>239.14259999999999</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3">
@@ -689,7 +684,7 @@
         <v>238.5685</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -705,10 +700,10 @@
       <c r="E4">
         <v>291.79020000000003</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4">
@@ -721,7 +716,7 @@
         <v>290.06729999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -737,10 +732,10 @@
       <c r="E5">
         <v>282.07420000000002</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="3">
         <v>2</v>
       </c>
       <c r="H5">
@@ -753,7 +748,7 @@
         <v>287.3544</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -769,10 +764,10 @@
       <c r="E6">
         <v>279.22930000000002</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="4">
         <v>3</v>
       </c>
       <c r="H6">
@@ -785,7 +780,7 @@
         <v>279.95190000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -801,10 +796,10 @@
       <c r="E7">
         <v>268.42500000000001</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="5">
         <v>4</v>
       </c>
       <c r="H7">
@@ -817,7 +812,7 @@
         <v>277.27350000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -833,10 +828,10 @@
       <c r="E8">
         <v>271.58359999999999</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="5">
         <v>4</v>
       </c>
       <c r="H8">
@@ -849,7 +844,7 @@
         <v>280.15089999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -865,10 +860,10 @@
       <c r="E9">
         <v>268.85300000000001</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="5">
         <v>4</v>
       </c>
       <c r="H9">
@@ -881,7 +876,7 @@
         <v>284.899</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -897,10 +892,10 @@
       <c r="E10">
         <v>268.76650000000001</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="5">
         <v>4</v>
       </c>
       <c r="H10">
@@ -913,7 +908,7 @@
         <v>285.30270000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -929,10 +924,10 @@
       <c r="E11">
         <v>266.61950000000002</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="5">
         <v>4</v>
       </c>
       <c r="H11">
@@ -945,17 +940,17 @@
         <v>283.51519999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5">
         <v>4</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="5">
         <v>4</v>
       </c>
       <c r="H12">
@@ -968,17 +963,17 @@
         <v>282.19029999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="5">
         <v>4</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="5">
         <v>4</v>
       </c>
       <c r="H13">
@@ -991,17 +986,17 @@
         <v>287.9239</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="5">
         <v>4</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="5">
         <v>4</v>
       </c>
       <c r="H14">
@@ -1014,11 +1009,11 @@
         <v>289.60489999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15">
         <v>20.617000000000001</v>
       </c>
@@ -1029,7 +1024,7 @@
         <v>296.90539999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1045,10 +1040,10 @@
       <c r="E16">
         <v>275.4348</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="6">
         <v>5</v>
       </c>
       <c r="H16">
@@ -1061,7 +1056,7 @@
         <v>279.36329999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -1077,10 +1072,10 @@
       <c r="E17">
         <v>270.29640000000001</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="7">
         <v>6</v>
       </c>
       <c r="H17">
@@ -1093,7 +1088,7 @@
         <v>296.10289999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -1109,10 +1104,10 @@
       <c r="E18">
         <v>271.6619</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="7">
         <v>6</v>
       </c>
       <c r="H18">
@@ -1125,7 +1120,7 @@
         <v>288.0213</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -1141,10 +1136,10 @@
       <c r="E19">
         <v>272.00650000000002</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="7">
         <v>6</v>
       </c>
       <c r="H19">
@@ -1157,7 +1152,7 @@
         <v>291.53640000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
@@ -1173,10 +1168,10 @@
       <c r="E20">
         <v>278.33210000000003</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="7">
         <v>6</v>
       </c>
       <c r="H20">
@@ -1189,7 +1184,7 @@
         <v>284.30250000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
@@ -1205,10 +1200,10 @@
       <c r="E21">
         <v>246.0258</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="8">
         <v>7</v>
       </c>
       <c r="H21">
@@ -1221,7 +1216,7 @@
         <v>300.8571</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -1237,10 +1232,10 @@
       <c r="E22">
         <v>243.02940000000001</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="9">
         <v>8</v>
       </c>
       <c r="H22">
@@ -1253,7 +1248,7 @@
         <v>295.67790000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>22</v>
       </c>
@@ -1269,10 +1264,10 @@
       <c r="E23">
         <v>247.37430000000001</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="9">
         <v>8</v>
       </c>
       <c r="H23">
@@ -1285,7 +1280,7 @@
         <v>299.6515</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>23</v>
       </c>
@@ -1301,10 +1296,10 @@
       <c r="E24">
         <v>234.36150000000001</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="10">
         <v>9</v>
       </c>
       <c r="H24">
@@ -1317,7 +1312,7 @@
         <v>291.97669999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>24</v>
       </c>
@@ -1333,10 +1328,10 @@
       <c r="E25">
         <v>241.8475</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="10">
         <v>9</v>
       </c>
       <c r="H25">
@@ -1349,7 +1344,7 @@
         <v>298.54020000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>25</v>
       </c>
@@ -1365,10 +1360,10 @@
       <c r="E26">
         <v>291.19720000000001</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="9">
         <v>10</v>
       </c>
       <c r="H26">
@@ -1381,7 +1376,7 @@
         <v>289.18900000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
@@ -1397,10 +1392,10 @@
       <c r="E27">
         <v>275.21210000000002</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="9">
         <v>10</v>
       </c>
       <c r="H27">
@@ -1413,7 +1408,7 @@
         <v>284.53309999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
@@ -1429,10 +1424,10 @@
       <c r="E28">
         <v>265.75130000000001</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="9">
         <v>10</v>
       </c>
       <c r="H28">
@@ -1445,7 +1440,7 @@
         <v>263.35390000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
@@ -1461,10 +1456,10 @@
       <c r="E29">
         <v>274.92090000000002</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="8">
         <v>11</v>
       </c>
       <c r="H29">
@@ -1477,7 +1472,7 @@
         <v>280.68700000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>29</v>
       </c>
@@ -1493,10 +1488,10 @@
       <c r="E30">
         <v>270.67</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="8">
         <v>11</v>
       </c>
       <c r="H30">
@@ -1509,7 +1504,7 @@
         <v>279.9975</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>30</v>
       </c>
@@ -1525,10 +1520,10 @@
       <c r="E31">
         <v>296.10129999999998</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="8">
         <v>11</v>
       </c>
       <c r="H31">
@@ -1541,7 +1536,7 @@
         <v>299.32560000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>31</v>
       </c>
@@ -1557,10 +1552,10 @@
       <c r="E32">
         <v>276.27260000000001</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="7">
         <v>12</v>
       </c>
       <c r="H32">
@@ -1573,7 +1568,7 @@
         <v>276.84710000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>32</v>
       </c>
@@ -1589,10 +1584,10 @@
       <c r="E33">
         <v>248.85069999999999</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="7">
         <v>12</v>
       </c>
       <c r="H33">
@@ -1605,7 +1600,7 @@
         <v>283.52789999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>33</v>
       </c>
@@ -1621,10 +1616,10 @@
       <c r="E34">
         <v>236.90979999999999</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="7">
         <v>12</v>
       </c>
       <c r="H34">
